--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_19-00.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_19-00.xlsx
@@ -104,6 +104,9 @@
     <t>16:0</t>
   </si>
   <si>
+    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -213,6 +216,9 @@
   </si>
   <si>
     <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>LEVANOX N 20 CAPS</t>
   </si>
   <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
@@ -1384,13 +1390,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>43.329999999999998</v>
+        <v>34</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1410,17 +1416,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>25</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1436,7 +1442,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1454,7 +1460,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1462,17 +1468,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1488,13 +1494,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1514,17 +1520,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1540,17 +1546,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1558,7 +1564,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1566,17 +1572,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1592,13 +1598,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>12</v>
+        <v>27.5</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1610,7 +1616,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1618,13 +1624,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1644,13 +1650,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1670,7 +1676,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1696,13 +1702,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1714,7 +1720,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1722,17 +1728,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1748,17 +1754,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1766,7 +1772,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1774,17 +1780,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1792,7 +1798,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1800,17 +1806,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1826,17 +1832,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1844,7 +1850,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1852,17 +1858,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1878,13 +1884,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1904,17 +1910,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1930,17 +1936,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1956,17 +1962,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>-25</v>
+        <v>177</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1974,7 +1980,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1982,13 +1988,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>14.25</v>
+        <v>-25</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2008,17 +2014,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>78</v>
+        <v>14.25</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2034,17 +2040,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>27.440000000000001</v>
+        <v>78</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2060,17 +2066,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>57</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2086,13 +2092,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>120.78</v>
+        <v>57</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2118,7 +2124,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>70</v>
+        <v>120.78</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2138,13 +2144,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2164,17 +2170,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2190,13 +2196,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>240</v>
+        <v>39</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2216,17 +2222,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2242,13 +2248,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2260,7 +2266,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2268,17 +2274,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2286,7 +2292,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2294,17 +2300,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2312,7 +2318,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2320,17 +2326,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2338,7 +2344,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2346,17 +2352,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2364,7 +2370,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2372,17 +2378,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2398,17 +2404,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2424,17 +2430,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2442,7 +2448,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2450,13 +2456,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>27</v>
+        <v>411</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2468,7 +2474,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2476,17 +2482,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2494,7 +2500,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2502,7 +2508,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -2512,7 +2518,7 @@
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2520,7 +2526,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2528,13 +2534,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>160.05000000000001</v>
+        <v>24</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2554,13 +2560,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2572,7 +2578,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2580,17 +2586,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>7</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2598,7 +2604,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2606,17 +2612,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2624,7 +2630,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2632,17 +2638,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>86.5</v>
+        <v>7</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2658,13 +2664,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2684,17 +2690,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>62</v>
+        <v>86.5</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2716,11 +2722,11 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2736,13 +2742,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>30.5</v>
+        <v>62</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2762,17 +2768,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>31.5</v>
+        <v>282</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2780,7 +2786,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2788,17 +2794,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>60</v>
+        <v>30.5</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2806,7 +2812,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2814,17 +2820,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>123</v>
+        <v>31.5</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2840,13 +2846,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2872,7 +2878,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>68.400000000000006</v>
+        <v>123</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2898,11 +2904,11 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>26.100000000000001</v>
+        <v>24</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2918,17 +2924,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>62</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2944,17 +2950,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>132</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2970,17 +2976,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2988,7 +2994,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2996,17 +3002,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>94.5</v>
+        <v>132</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3014,7 +3020,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3022,13 +3028,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3040,7 +3046,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3054,11 +3060,11 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>49</v>
+        <v>94.5</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3066,7 +3072,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3074,7 +3080,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
@@ -3084,7 +3090,7 @@
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3100,13 +3106,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3118,7 +3124,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3126,13 +3132,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3144,7 +3150,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3152,17 +3158,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>121</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3170,7 +3176,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3178,17 +3184,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3196,7 +3202,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3204,17 +3210,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>11</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3222,7 +3228,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3230,17 +3236,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3248,7 +3254,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3256,13 +3262,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3274,7 +3280,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3282,13 +3288,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3296,37 +3302,89 @@
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
-      <c r="K93" s="10">
-        <v>5938.6700000000001</v>
-      </c>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
-    </row>
-    <row r="94" ht="17.25" customHeight="1">
-      <c t="s" r="A94" s="11">
+      <c r="A93" s="6">
+        <v>90</v>
+      </c>
+      <c t="s" r="B93" s="7">
+        <v>130</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c t="s" r="H93" s="8">
+        <v>115</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="9">
+        <v>24</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c t="s" r="N93" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" ht="24.75" customHeight="1">
+      <c r="A94" s="6">
+        <v>91</v>
+      </c>
+      <c t="s" r="B94" s="7">
         <v>131</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c t="s" r="F94" s="12">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c t="s" r="H94" s="8">
         <v>132</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-      <c t="s" r="I94" s="14">
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="9">
+        <v>30</v>
+      </c>
+      <c r="M94" s="9"/>
+      <c t="s" r="N94" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" ht="26.25" customHeight="1">
+      <c r="K95" s="10">
+        <v>6037.6700000000001</v>
+      </c>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="11">
         <v>133</v>
       </c>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c t="s" r="F96" s="12">
+        <v>134</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="13"/>
+      <c t="s" r="I96" s="14">
+        <v>135</v>
+      </c>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="278">
+  <mergeCells count="284">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3601,10 +3659,16 @@
     <mergeCell ref="B92:G92"/>
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="K95:N95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="I96:N96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
